--- a/SYEI_stamping_press_system/螺栓尺寸表.xlsx
+++ b/SYEI_stamping_press_system/螺栓尺寸表.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\實驗室資料\程式組\伺服沖床自動化設計系統\螺栓系列\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5E9ACF-7C95-4A62-A186-D942D40839ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD54085-4A84-4218-B8C9-409096187B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="5" xr2:uid="{4E4B8145-4655-4BB5-86FE-1FED48B3DDB7}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="4" xr2:uid="{4E4B8145-4655-4BB5-86FE-1FED48B3DDB7}"/>
   </bookViews>
   <sheets>
     <sheet name="夾頭螺栓" sheetId="1" r:id="rId1"/>
     <sheet name="六角孔螺栓" sheetId="3" r:id="rId2"/>
     <sheet name="六角孔螺栓_L" sheetId="4" r:id="rId3"/>
-    <sheet name="防震螺栓" sheetId="5" r:id="rId4"/>
+    <sheet name="防震螺栓(舊版未更新)" sheetId="5" r:id="rId4"/>
     <sheet name="防震螺栓_SN1用" sheetId="7" r:id="rId5"/>
     <sheet name="鎖模螺栓" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="68">
   <si>
     <t>變數                         噸數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,22 @@
   </si>
   <si>
     <t>MLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,6 +442,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>102029</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511019</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB95493-5FBD-1173-E604-0CEA94F734FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4731179" y="590549"/>
+          <a:ext cx="5895390" cy="5754183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3817,7 +3882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4497,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1E2067-AE85-4FFF-BF7E-AF989F43E312}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4539,91 +4604,148 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
       </c>
       <c r="C3" s="4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
+      <c r="C4" s="4">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4">
-        <v>15</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C5" s="4">
-        <v>24</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D5" s="4">
-        <v>15</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4">
-        <v>15</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C6" s="4">
-        <v>24</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D6" s="4">
-        <v>22</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B12" s="4">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C12" s="4">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D12" s="4">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4631,9 +4753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F2103C-B34C-49BF-9B75-CEE72DA6823B}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
